--- a/Assets/Resources/Localization/Items.xlsx
+++ b/Assets/Resources/Localization/Items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Items</t>
   </si>
@@ -33,30 +33,18 @@
     <t>RifleName</t>
   </si>
   <si>
-    <t>PlamRifleName</t>
-  </si>
-  <si>
     <t>RifleDescription</t>
   </si>
   <si>
     <t>Винтовка</t>
   </si>
   <si>
-    <t>Мощное оружие с вместительным магазином \n</t>
-  </si>
-  <si>
     <t>Снайпер</t>
   </si>
   <si>
     <t>Sniper</t>
   </si>
   <si>
-    <t>Русский</t>
-  </si>
-  <si>
-    <t>#Weapons</t>
-  </si>
-  <si>
     <t>- Увеличенный шанс критического урона\n- Низкое здоровье\n- Высокая регенерация\n- Высокая скорость передвижения\n- Бонус к регенерации 10%, если игрок не двигается</t>
   </si>
   <si>
@@ -121,6 +109,243 @@
   </si>
   <si>
     <t>-Увеличенный урон\n- Высокая частота бросков гранат\n-Бессмертие\n-Отец Иисуса\n- Не может установить рекорд</t>
+  </si>
+  <si>
+    <t># Infinity players</t>
+  </si>
+  <si>
+    <t># Weapons</t>
+  </si>
+  <si>
+    <t>PowerPistolName</t>
+  </si>
+  <si>
+    <t>PowerPistolDescription</t>
+  </si>
+  <si>
+    <t>Power pistol</t>
+  </si>
+  <si>
+    <t>Бронебойный пистолет</t>
+  </si>
+  <si>
+    <t>The gun that you are looking for. 18 rounds in magazine and power of Desert Eagle in one.\n&lt;color=#33ccff&gt;Ranged weapon&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Тот самый ствол, что ты ищешь. 18 патронов в магазине и мощь Desert Eagle'а в одном.\n&lt;color=#33ccff&gt;Оружие дальнего боя&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>BlasterName</t>
+  </si>
+  <si>
+    <t>BlasterDescription</t>
+  </si>
+  <si>
+    <t>Бластер</t>
+  </si>
+  <si>
+    <t>Blaster</t>
+  </si>
+  <si>
+    <t>Actual blaster. Charges itself when not shooting. Also has the &lt;color=#ee5533&gt;Death mode&lt;/color&gt;.\n&lt;color=#33ccff&gt;Ranged weapon&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Настоящий бластер. Автоматически заряжается в режиме ожидания. Имеет &lt;color=#ee5533&gt;Смертельный режим&lt;/color&gt;.\n&lt;color=#33ccff&gt;Оружие дальнего боя&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Powerful weapon with capacious magazine and incredible shot rate.\n&lt;color=#33ccff&gt;Ranged weapon&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Мощное оружие с вместительным магазином и потрясающей скорострельностью.\n&lt;color=#33ccff&gt;Оружие дальнего боя&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>EnergyKnifeName</t>
+  </si>
+  <si>
+    <t>EnergyKnifeDescription</t>
+  </si>
+  <si>
+    <t>This is knife. Knife that works on batteries. Take it or leave it.\n\nP.S. There's actually a &lt;color=#22aa22&gt;nuclear capacitor&lt;/color&gt; inside, not &lt;color=#ff2222&gt;damn batteries&lt;/color&gt;.\n&lt;color=#72D683&gt;Melee weapon&lt;/color&gt;\n&lt;color=#935C51&gt;Weak against robots&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Energy knife</t>
+  </si>
+  <si>
+    <t>Энергетический нож</t>
+  </si>
+  <si>
+    <t>Это нож. Нож на батарейках. Бери либо уходи.\n\nP.S. На самом деле внутри &lt;color=#22aa22&gt;атомный конденсатор&lt;/color&gt;, а не &lt;color=#ff2222&gt;чёртовы батарейки&lt;/color&gt;.\n&lt;color=#72D683&gt;Оружие ближнего боя&lt;/color&gt;\n&lt;color=#935C51&gt;Меньший урон роботам&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t># Grenades</t>
+  </si>
+  <si>
+    <t>FragGrenadeName</t>
+  </si>
+  <si>
+    <t>FragGrenadeDescription</t>
+  </si>
+  <si>
+    <t>ElectricGrenadeName</t>
+  </si>
+  <si>
+    <t>ElectricGrenadeDescription</t>
+  </si>
+  <si>
+    <t>MultipleGrenadeName</t>
+  </si>
+  <si>
+    <t>MultipleGrenadeDescription</t>
+  </si>
+  <si>
+    <t>GasGrenadeName</t>
+  </si>
+  <si>
+    <t>GasGrenadeDescription</t>
+  </si>
+  <si>
+    <t>Осколочная граната</t>
+  </si>
+  <si>
+    <t>Fragment grenade</t>
+  </si>
+  <si>
+    <t>Электро-граната</t>
+  </si>
+  <si>
+    <t>Electric grenade</t>
+  </si>
+  <si>
+    <t>Multiple grenade</t>
+  </si>
+  <si>
+    <t>Gas grenade</t>
+  </si>
+  <si>
+    <t>Множественная граната</t>
+  </si>
+  <si>
+    <t>Газовая граната</t>
+  </si>
+  <si>
+    <t>Simple grenade with small blast radius and great damage.\n&lt;color=#ff3333&gt;Explosive&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>This tiny piece of metal will ruin everything you love exactly in 3.3 seconds. Contains a lot of &lt;color=#ffee22&gt;fragments&lt;/color&gt;, which also explode.\n&lt;color=#ff3333&gt;Explosive²&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Initially it was created as a weapon agains robots with AI. In theory, it can provide a big city with electricity for about 7 hours.\n&lt;color=#0cc1e8&gt;Electric&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Chemical weapons are prohibited since 1993, but how would they know you're using it?\n&lt;color=#4A993B&gt;Poisonous&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Простая граната с небольшим радиусом поражения и огромным уроном.\n&lt;color=#ff3333&gt;Взрывоопасна&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Изначально создавалась как оружие против роботов с ИИ. Теоретически, может питать большой город электричеством около 7 часов.\n&lt;color=#0cc1e8&gt;Электрическая&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Этот небольшой кусочек металла уничтожит всё, что вам дорого ровно за 3.3 секунды. Внутри много взрывающихся фрагментов.\n&lt;color=#ff3333&gt;Взрывоопасна²&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Химическое оружие запрещено с 1993 года, но как они узнают что ты им пользуешься?\n&lt;color=#4A993B&gt;Ядовита&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t># Infinity difficulties</t>
+  </si>
+  <si>
+    <t>EasyDName</t>
+  </si>
+  <si>
+    <t>EasyDDescription</t>
+  </si>
+  <si>
+    <t>MediumDName</t>
+  </si>
+  <si>
+    <t>MediumDDescription</t>
+  </si>
+  <si>
+    <t>HardDName</t>
+  </si>
+  <si>
+    <t>HardDDescription</t>
+  </si>
+  <si>
+    <t>InsaneDName</t>
+  </si>
+  <si>
+    <t>InsaneDDescription</t>
+  </si>
+  <si>
+    <t>BloodbathDName</t>
+  </si>
+  <si>
+    <t>BloodbathDDescription</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>&lt;color=#ee0000&gt;Bloodbath&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Легко</t>
+  </si>
+  <si>
+    <t>Нормально</t>
+  </si>
+  <si>
+    <t>Сложно</t>
+  </si>
+  <si>
+    <t>Безумие</t>
+  </si>
+  <si>
+    <t>&lt;color=#ee0000&gt;Кровавая баня&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>In case you're sucker. It's not even a difficulty, it's just reminder for you.</t>
+  </si>
+  <si>
+    <t>Great way to have fun. Not for true professionals, but still a bit challenging.</t>
+  </si>
+  <si>
+    <t>Ah yes, you're from loony bin. Come in and enemies will end your suffering in this harsh world.</t>
+  </si>
+  <si>
+    <t>Your regeneration will be boosted ten times, but you still won't have any chances here. Only if you will bring here a few dozens of comrades.</t>
+  </si>
+  <si>
+    <t>Для слабаков. Это даже не сложность, просто напоминание для тебя.</t>
+  </si>
+  <si>
+    <t>Для профи. Сложно выжить и сложно это название сложности. Удачи.</t>
+  </si>
+  <si>
+    <t>For pros. Hard to survive and hard is a difficulty's name. Good luck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ваша регенерация будет повышена 10 раз, однако ваши шансы всё же нулевые. Если только вы не привели пару десятков соратников. </t>
+  </si>
+  <si>
+    <t>Неплохой способ повеселиться. Не для профессионалов, но это всё же не так просто.</t>
+  </si>
+  <si>
+    <t>О, вы из дурки. Заходите, и враги покончат с вашими страданиями в этом жестоком мире.</t>
+  </si>
+  <si>
+    <t>Russian</t>
   </si>
 </sst>
 </file>
@@ -446,13 +671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
@@ -462,263 +687,411 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
